--- a/results/case2/data_uniquie_case2_apos_recipe.xlsx
+++ b/results/case2/data_uniquie_case2_apos_recipe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>('ReCiPe 2016 v1.03, midpoint (H) - no biogenic', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
   </si>
@@ -85,18 +85,12 @@
     <t>'MUD manufacturing' (unit, GLO, None)</t>
   </si>
   <si>
-    <t>'MUD packgaging materials' (kilogram, GLO, None)</t>
-  </si>
-  <si>
     <t>'MUD raw materials' (unit, GLO, None)</t>
   </si>
   <si>
     <t>'SUD manufacturing' (unit, GLO, None)</t>
   </si>
   <si>
-    <t>'SUD packgaging materials' (kilogram, GLO, None)</t>
-  </si>
-  <si>
     <t>'SUD raw materials' (unit, GLO, None)</t>
   </si>
   <si>
@@ -116,6 +110,9 @@
   </si>
   <si>
     <t>'mixed heating grid' (megajoule, DK, None)</t>
+  </si>
+  <si>
+    <t>'packgaging materials' (kilogram, GLO, None)</t>
   </si>
   <si>
     <t>'scalpel' (unit, GLO, None)</t>
@@ -485,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,67 +558,67 @@
         <v>21</v>
       </c>
       <c r="B2">
-        <v>0.0005177258162053521</v>
+        <v>0.0005177258448382548</v>
       </c>
       <c r="C2">
-        <v>0.4012104309505641</v>
+        <v>0.401210439648705</v>
       </c>
       <c r="D2">
-        <v>0.01508377155575703</v>
+        <v>0.01508377201016564</v>
       </c>
       <c r="E2">
-        <v>0.02125144574984851</v>
+        <v>0.02125144636939431</v>
       </c>
       <c r="F2">
-        <v>0.9526543625447539</v>
+        <v>0.9526544060792671</v>
       </c>
       <c r="G2">
-        <v>0.1362015269159101</v>
+        <v>0.1362015284722929</v>
       </c>
       <c r="H2">
-        <v>2.195262649747147E-05</v>
+        <v>2.195262843750439E-05</v>
       </c>
       <c r="I2">
-        <v>-1.078391409701233E-05</v>
+        <v>-1.078391375414015E-05</v>
       </c>
       <c r="J2">
-        <v>0.006889165458476111</v>
+        <v>0.00688916874275006</v>
       </c>
       <c r="K2">
-        <v>0.1805229215960239</v>
+        <v>0.1805229287692934</v>
       </c>
       <c r="L2">
-        <v>0.001410795241233122</v>
+        <v>0.001410795530533265</v>
       </c>
       <c r="M2">
-        <v>-0.03633178259685368</v>
+        <v>-0.03633178190925038</v>
       </c>
       <c r="N2">
-        <v>0.002134166056816194</v>
+        <v>0.002134166517441194</v>
       </c>
       <c r="O2">
-        <v>-5.856165877574876E-08</v>
+        <v>-5.856165593418293E-08</v>
       </c>
       <c r="P2">
-        <v>0.0002334443376295763</v>
+        <v>0.0002334443534780078</v>
       </c>
       <c r="Q2">
-        <v>0.0004352374137689121</v>
+        <v>0.0004352374445699542</v>
       </c>
       <c r="R2">
-        <v>0.0004652920865966736</v>
+        <v>0.0004652921182343552</v>
       </c>
       <c r="S2">
-        <v>0.001030149592528224</v>
+        <v>0.001030149645449604</v>
       </c>
       <c r="T2">
-        <v>1.009389660116997E-09</v>
+        <v>1.009389702905688E-09</v>
       </c>
       <c r="U2">
-        <v>5.85671635459721E-07</v>
+        <v>5.856716661832637E-07</v>
       </c>
       <c r="V2">
-        <v>0.05370741557745238</v>
+        <v>0.05370741611296472</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -697,67 +694,67 @@
         <v>23</v>
       </c>
       <c r="B4">
-        <v>0.009062376871944279</v>
+        <v>5.044343527077364E-06</v>
       </c>
       <c r="C4">
-        <v>3.205257124642301</v>
+        <v>0.0009051563089579962</v>
       </c>
       <c r="D4">
-        <v>0.08392868037835056</v>
+        <v>0.000865023131354999</v>
       </c>
       <c r="E4">
-        <v>0.1123832344946726</v>
+        <v>0.001363932244702852</v>
       </c>
       <c r="F4">
-        <v>7.421893555053106</v>
+        <v>0.01411658378970856</v>
       </c>
       <c r="G4">
-        <v>1.898586658223021</v>
+        <v>0.0002325060894508973</v>
       </c>
       <c r="H4">
-        <v>0.0008007067145402015</v>
+        <v>1.346265868406846E-06</v>
       </c>
       <c r="I4">
-        <v>0.0001144681756382822</v>
+        <v>5.91608452088953E-08</v>
       </c>
       <c r="J4">
-        <v>0.1324826912479839</v>
+        <v>0.0003692023518769145</v>
       </c>
       <c r="K4">
-        <v>1.984333186127859</v>
+        <v>0.01622152654449242</v>
       </c>
       <c r="L4">
-        <v>0.2024672322428372</v>
+        <v>5.461090725600252E-05</v>
       </c>
       <c r="M4">
-        <v>0.09313481712297227</v>
+        <v>4.90486203286378E-05</v>
       </c>
       <c r="N4">
-        <v>0.02102108792221297</v>
+        <v>0.000107839091339939</v>
       </c>
       <c r="O4">
-        <v>5.930316076781033E-07</v>
+        <v>2.516541974161185E-09</v>
       </c>
       <c r="P4">
-        <v>0.004042495765661381</v>
+        <v>2.408276443066309E-06</v>
       </c>
       <c r="Q4">
-        <v>0.007820237171097063</v>
+        <v>4.763020469188235E-06</v>
       </c>
       <c r="R4">
-        <v>0.008528616038894791</v>
+        <v>4.882886117475969E-06</v>
       </c>
       <c r="S4">
-        <v>0.04824889134733935</v>
+        <v>7.773105903142865E-06</v>
       </c>
       <c r="T4">
-        <v>1.351638465535772E-08</v>
+        <v>6.474216154890863E-12</v>
       </c>
       <c r="U4">
-        <v>6.522987891004069E-06</v>
+        <v>7.302799999889893E-09</v>
       </c>
       <c r="V4">
-        <v>0.7124084987327562</v>
+        <v>9.178140202761554E-05</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -765,67 +762,67 @@
         <v>24</v>
       </c>
       <c r="B5">
-        <v>5.044343527077364E-06</v>
+        <v>0.01449345170589394</v>
       </c>
       <c r="C5">
-        <v>0.0009051563089579962</v>
+        <v>0.7599394500035327</v>
       </c>
       <c r="D5">
-        <v>0.000865023131354999</v>
+        <v>1.345390637530452</v>
       </c>
       <c r="E5">
-        <v>0.001363932244702852</v>
+        <v>1.727145795910309</v>
       </c>
       <c r="F5">
-        <v>0.01411658378970856</v>
+        <v>102.7754556715733</v>
       </c>
       <c r="G5">
-        <v>0.0002325060894508973</v>
+        <v>0.2078212058349955</v>
       </c>
       <c r="H5">
-        <v>1.346265868406846E-06</v>
+        <v>0.001924726265283953</v>
       </c>
       <c r="I5">
-        <v>5.91608452088953E-08</v>
+        <v>6.042957304204081E-05</v>
       </c>
       <c r="J5">
-        <v>0.0003692023518769145</v>
+        <v>0.1684748403603112</v>
       </c>
       <c r="K5">
-        <v>0.01622152654449242</v>
+        <v>19.78402519897064</v>
       </c>
       <c r="L5">
-        <v>5.461090725600252E-05</v>
+        <v>0.1003765748615008</v>
       </c>
       <c r="M5">
-        <v>4.90486203286378E-05</v>
+        <v>0.05611561609202762</v>
       </c>
       <c r="N5">
-        <v>0.000107839091339939</v>
+        <v>0.06718160031041252</v>
       </c>
       <c r="O5">
-        <v>2.516541974161185E-09</v>
+        <v>4.869017634813851E-07</v>
       </c>
       <c r="P5">
-        <v>2.408276443066309E-06</v>
+        <v>0.005053974244046525</v>
       </c>
       <c r="Q5">
-        <v>4.763020469188235E-06</v>
+        <v>0.003514348035389613</v>
       </c>
       <c r="R5">
-        <v>4.882886117475969E-06</v>
+        <v>0.003606848543125487</v>
       </c>
       <c r="S5">
-        <v>7.773105903142865E-06</v>
+        <v>0.01085671437132858</v>
       </c>
       <c r="T5">
-        <v>6.474216154890863E-12</v>
+        <v>9.739543484954777E-09</v>
       </c>
       <c r="U5">
-        <v>7.302799999889893E-09</v>
+        <v>8.977744949763389E-06</v>
       </c>
       <c r="V5">
-        <v>9.178140202761554E-05</v>
+        <v>0.0657118779384806</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -833,67 +830,67 @@
         <v>25</v>
       </c>
       <c r="B6">
-        <v>0.01449345170589394</v>
+        <v>0.002301881251574761</v>
       </c>
       <c r="C6">
-        <v>0.7599394500035327</v>
+        <v>0.1652473924931615</v>
       </c>
       <c r="D6">
-        <v>1.345390637530452</v>
+        <v>0.01684144159178661</v>
       </c>
       <c r="E6">
-        <v>1.727145795910309</v>
+        <v>0.02314080529561657</v>
       </c>
       <c r="F6">
-        <v>102.7754556715733</v>
+        <v>4.338663284220511</v>
       </c>
       <c r="G6">
-        <v>0.2078212058349955</v>
+        <v>0.06836056390686601</v>
       </c>
       <c r="H6">
-        <v>0.001924726265283953</v>
+        <v>4.928300453400991E-05</v>
       </c>
       <c r="I6">
-        <v>6.042957304204081E-05</v>
+        <v>9.421561054890103E-06</v>
       </c>
       <c r="J6">
-        <v>0.1684748403603112</v>
+        <v>0.02807747992745142</v>
       </c>
       <c r="K6">
-        <v>19.78402519897064</v>
+        <v>0.3179891360626064</v>
       </c>
       <c r="L6">
-        <v>0.1003765748615008</v>
+        <v>0.009525746373171535</v>
       </c>
       <c r="M6">
-        <v>0.05611561609202762</v>
+        <v>0.003024483458977392</v>
       </c>
       <c r="N6">
-        <v>0.06718160031041252</v>
+        <v>0.008941788081229496</v>
       </c>
       <c r="O6">
-        <v>4.869017634813851E-07</v>
+        <v>8.265723535363978E-08</v>
       </c>
       <c r="P6">
-        <v>0.005053974244046525</v>
+        <v>0.0007740388543867844</v>
       </c>
       <c r="Q6">
-        <v>0.003514348035389613</v>
+        <v>0.0004064415577886623</v>
       </c>
       <c r="R6">
-        <v>0.003606848543125487</v>
+        <v>0.0004353569422022111</v>
       </c>
       <c r="S6">
-        <v>0.01085671437132858</v>
+        <v>0.004321421048325672</v>
       </c>
       <c r="T6">
-        <v>9.739543484954777E-09</v>
+        <v>1.13050873200051E-09</v>
       </c>
       <c r="U6">
-        <v>8.977744949763389E-06</v>
+        <v>8.151528079288333E-07</v>
       </c>
       <c r="V6">
-        <v>0.0657118779384806</v>
+        <v>0.0262426521752963</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -901,67 +898,67 @@
         <v>26</v>
       </c>
       <c r="B7">
-        <v>0.007223574219549321</v>
+        <v>0.009244927786856608</v>
       </c>
       <c r="C7">
-        <v>2.428075163780191</v>
+        <v>2.671091836912631</v>
       </c>
       <c r="D7">
-        <v>0.07016813328737236</v>
+        <v>0.5528633225080681</v>
       </c>
       <c r="E7">
-        <v>0.09344669677707922</v>
+        <v>0.6978899160767105</v>
       </c>
       <c r="F7">
-        <v>6.606754278037037</v>
+        <v>28.38506855710002</v>
       </c>
       <c r="G7">
-        <v>1.333466901546345</v>
+        <v>0.6839582829220543</v>
       </c>
       <c r="H7">
-        <v>0.0006782904140378359</v>
+        <v>0.002701484745966638</v>
       </c>
       <c r="I7">
-        <v>0.0001927160530775579</v>
+        <v>0.001849573458716408</v>
       </c>
       <c r="J7">
-        <v>0.1056188009045302</v>
+        <v>0.2576173425779568</v>
       </c>
       <c r="K7">
-        <v>1.852968961666067</v>
+        <v>8.056915050696132</v>
       </c>
       <c r="L7">
-        <v>0.1758859791918164</v>
+        <v>0.7222524915536249</v>
       </c>
       <c r="M7">
-        <v>0.4951723222533895</v>
+        <v>0.5164372870116647</v>
       </c>
       <c r="N7">
-        <v>0.1917812913274864</v>
+        <v>0.04237846713361667</v>
       </c>
       <c r="O7">
-        <v>7.518127380009085E-07</v>
+        <v>3.232912382582371E-06</v>
       </c>
       <c r="P7">
-        <v>0.003281927575817966</v>
+        <v>0.003220264839338773</v>
       </c>
       <c r="Q7">
-        <v>0.006287098351865716</v>
+        <v>0.005711524051727569</v>
       </c>
       <c r="R7">
-        <v>0.006798701505091652</v>
+        <v>0.005856926599166215</v>
       </c>
       <c r="S7">
-        <v>0.04489655203232332</v>
+        <v>0.04998574848891744</v>
       </c>
       <c r="T7">
-        <v>1.418889836833462E-08</v>
+        <v>1.736799614499611E-08</v>
       </c>
       <c r="U7">
-        <v>5.195975225027436E-06</v>
+        <v>7.318254868758919E-06</v>
       </c>
       <c r="V7">
-        <v>0.5372963585016816</v>
+        <v>0.1417827705286125</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -969,67 +966,67 @@
         <v>27</v>
       </c>
       <c r="B8">
-        <v>0.002301881251574761</v>
+        <v>-0.000234648663485611</v>
       </c>
       <c r="C8">
-        <v>0.1652473924931615</v>
+        <v>-2.074882823814296</v>
       </c>
       <c r="D8">
-        <v>0.01684144159178661</v>
+        <v>-0.1045762494765989</v>
       </c>
       <c r="E8">
-        <v>0.02314080529561657</v>
+        <v>-0.1490497071239111</v>
       </c>
       <c r="F8">
-        <v>4.338663284220511</v>
+        <v>-4.958433867379112</v>
       </c>
       <c r="G8">
-        <v>0.06836056390686601</v>
+        <v>-0.0145569513761765</v>
       </c>
       <c r="H8">
-        <v>4.928300453400991E-05</v>
+        <v>-3.075209950134264E-05</v>
       </c>
       <c r="I8">
-        <v>9.421561054890103E-06</v>
+        <v>-8.237781558060802E-06</v>
       </c>
       <c r="J8">
-        <v>0.02807747992745142</v>
+        <v>-0.02039042900989595</v>
       </c>
       <c r="K8">
-        <v>0.3179891360626064</v>
+        <v>-1.427710903953276</v>
       </c>
       <c r="L8">
-        <v>0.009525746373171535</v>
+        <v>-0.001964932433347745</v>
       </c>
       <c r="M8">
-        <v>0.003024483458977392</v>
+        <v>-0.0006910682537940317</v>
       </c>
       <c r="N8">
-        <v>0.008941788081229496</v>
+        <v>-0.002019982804029491</v>
       </c>
       <c r="O8">
-        <v>8.265723535363978E-08</v>
+        <v>-3.059506891305212E-07</v>
       </c>
       <c r="P8">
-        <v>0.0007740388543867844</v>
+        <v>-8.890990673917354E-05</v>
       </c>
       <c r="Q8">
-        <v>0.0004064415577886623</v>
+        <v>-0.000418143300469861</v>
       </c>
       <c r="R8">
-        <v>0.0004353569422022111</v>
+        <v>-0.0004250787076401136</v>
       </c>
       <c r="S8">
-        <v>0.004321421048325672</v>
+        <v>-0.001748542743015449</v>
       </c>
       <c r="T8">
-        <v>1.13050873200051E-09</v>
+        <v>-6.085979782939854E-09</v>
       </c>
       <c r="U8">
-        <v>8.151528079288333E-07</v>
+        <v>-2.379189843175236E-06</v>
       </c>
       <c r="V8">
-        <v>0.0262426521752963</v>
+        <v>-0.005778467783805371</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1037,67 +1034,67 @@
         <v>28</v>
       </c>
       <c r="B9">
-        <v>0.009244927786856608</v>
+        <v>-0.0002799526880921039</v>
       </c>
       <c r="C9">
-        <v>2.671091836912631</v>
+        <v>-2.215203696501387</v>
       </c>
       <c r="D9">
-        <v>0.5528633225080681</v>
+        <v>-0.1872578843661662</v>
       </c>
       <c r="E9">
-        <v>0.6978899160767105</v>
+        <v>-0.2572834859005956</v>
       </c>
       <c r="F9">
-        <v>28.38506855710002</v>
+        <v>-5.055154426070557</v>
       </c>
       <c r="G9">
-        <v>0.6839582829220543</v>
+        <v>-0.01622764157807356</v>
       </c>
       <c r="H9">
-        <v>0.002701484745966638</v>
+        <v>-3.833546792369975E-05</v>
       </c>
       <c r="I9">
-        <v>0.001849573458716408</v>
+        <v>-1.13382611875204E-05</v>
       </c>
       <c r="J9">
-        <v>0.2576173425779568</v>
+        <v>-0.02678823435134863</v>
       </c>
       <c r="K9">
-        <v>8.056915050696132</v>
+        <v>-3.006100539780066</v>
       </c>
       <c r="L9">
-        <v>0.7222524915536249</v>
+        <v>-0.002201222494240024</v>
       </c>
       <c r="M9">
-        <v>0.5164372870116647</v>
+        <v>-0.0009479582763038803</v>
       </c>
       <c r="N9">
-        <v>0.04237846713361667</v>
+        <v>-0.002267177451102939</v>
       </c>
       <c r="O9">
-        <v>3.232912382582371E-06</v>
+        <v>-4.513293847892346E-07</v>
       </c>
       <c r="P9">
-        <v>0.003220264839338773</v>
+        <v>-0.0001058008571573529</v>
       </c>
       <c r="Q9">
-        <v>0.005711524051727569</v>
+        <v>-0.000504268813493813</v>
       </c>
       <c r="R9">
-        <v>0.005856926599166215</v>
+        <v>-0.0005122174826869996</v>
       </c>
       <c r="S9">
-        <v>0.04998574848891744</v>
+        <v>-0.002209772002756928</v>
       </c>
       <c r="T9">
-        <v>1.736799614499611E-08</v>
+        <v>-6.576798783796841E-09</v>
       </c>
       <c r="U9">
-        <v>7.318254868758919E-06</v>
+        <v>-2.902551240382399E-06</v>
       </c>
       <c r="V9">
-        <v>0.1417827705286125</v>
+        <v>-0.00641565825032164</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1105,67 +1102,67 @@
         <v>29</v>
       </c>
       <c r="B10">
-        <v>-0.000234648663485611</v>
+        <v>0.0005067527564257034</v>
       </c>
       <c r="C10">
-        <v>-2.074882823814296</v>
+        <v>0.2090725266761159</v>
       </c>
       <c r="D10">
-        <v>-0.1045762494765989</v>
+        <v>0.0129636704243021</v>
       </c>
       <c r="E10">
-        <v>-0.1490497071239111</v>
+        <v>0.01690435154242918</v>
       </c>
       <c r="F10">
-        <v>-4.958433867379112</v>
+        <v>0.5827244715235851</v>
       </c>
       <c r="G10">
-        <v>-0.0145569513761765</v>
+        <v>0.05504801952378246</v>
       </c>
       <c r="H10">
-        <v>-3.075209950134264E-05</v>
+        <v>0.0001737504547133003</v>
       </c>
       <c r="I10">
-        <v>-8.237781558060802E-06</v>
+        <v>1.504736331055337E-05</v>
       </c>
       <c r="J10">
-        <v>-0.02039042900989595</v>
+        <v>0.01732092934183302</v>
       </c>
       <c r="K10">
-        <v>-1.427710903953276</v>
+        <v>0.3091297290735713</v>
       </c>
       <c r="L10">
-        <v>-0.001964932433347745</v>
+        <v>0.06332676028392875</v>
       </c>
       <c r="M10">
-        <v>-0.0006910682537940317</v>
+        <v>0.04609386119616037</v>
       </c>
       <c r="N10">
-        <v>-0.002019982804029491</v>
+        <v>0.001418518412835908</v>
       </c>
       <c r="O10">
-        <v>-3.059506891305212E-07</v>
+        <v>2.385586374144117E-07</v>
       </c>
       <c r="P10">
-        <v>-8.890990673917354E-05</v>
+        <v>0.0001724650924568365</v>
       </c>
       <c r="Q10">
-        <v>-0.000418143300469861</v>
+        <v>0.0004212608282948737</v>
       </c>
       <c r="R10">
-        <v>-0.0004250787076401136</v>
+        <v>0.0004307690639543159</v>
       </c>
       <c r="S10">
-        <v>-0.001748542743015449</v>
+        <v>0.003780097176283349</v>
       </c>
       <c r="T10">
-        <v>-6.085979782939854E-09</v>
+        <v>1.291043774432961E-09</v>
       </c>
       <c r="U10">
-        <v>-2.379189843175236E-06</v>
+        <v>4.398194845904148E-07</v>
       </c>
       <c r="V10">
-        <v>-0.005778467783805371</v>
+        <v>0.01027810362916072</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1173,67 +1170,67 @@
         <v>30</v>
       </c>
       <c r="B11">
-        <v>-0.0002799526880921039</v>
+        <v>0.01200668689795142</v>
       </c>
       <c r="C11">
-        <v>-2.215203696501387</v>
+        <v>3.587523536323866</v>
       </c>
       <c r="D11">
-        <v>-0.1872578843661662</v>
+        <v>0.7517799482336798</v>
       </c>
       <c r="E11">
-        <v>-0.2572834859005956</v>
+        <v>0.9481719012997886</v>
       </c>
       <c r="F11">
-        <v>-5.055154426070557</v>
+        <v>38.2601231541985</v>
       </c>
       <c r="G11">
-        <v>-0.01622764157807356</v>
+        <v>0.9240502135535074</v>
       </c>
       <c r="H11">
-        <v>-3.833546792369975E-05</v>
+        <v>0.003421065429399548</v>
       </c>
       <c r="I11">
-        <v>-1.13382611875204E-05</v>
+        <v>0.001526492581355502</v>
       </c>
       <c r="J11">
-        <v>-0.02678823435134863</v>
+        <v>0.3391497550877831</v>
       </c>
       <c r="K11">
-        <v>-3.006100539780066</v>
+        <v>10.44930817855522</v>
       </c>
       <c r="L11">
-        <v>-0.002201222494240024</v>
+        <v>0.996939219237465</v>
       </c>
       <c r="M11">
-        <v>-0.0009479582763038803</v>
+        <v>0.7087070447121592</v>
       </c>
       <c r="N11">
-        <v>-0.002267177451102939</v>
+        <v>0.04612455728666324</v>
       </c>
       <c r="O11">
-        <v>-4.513293847892346E-07</v>
+        <v>4.133021640776055E-06</v>
       </c>
       <c r="P11">
-        <v>-0.0001058008571573529</v>
+        <v>0.004170294405951565</v>
       </c>
       <c r="Q11">
-        <v>-0.000504268813493813</v>
+        <v>0.00761185436459472</v>
       </c>
       <c r="R11">
-        <v>-0.0005122174826869996</v>
+        <v>0.007803648231695253</v>
       </c>
       <c r="S11">
-        <v>-0.002209772002756928</v>
+        <v>0.06400324380291146</v>
       </c>
       <c r="T11">
-        <v>-6.576798783796841E-09</v>
+        <v>2.323404156012605E-08</v>
       </c>
       <c r="U11">
-        <v>-2.902551240382399E-06</v>
+        <v>9.617358304447479E-06</v>
       </c>
       <c r="V11">
-        <v>-0.00641565825032164</v>
+        <v>0.1875386325016969</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1241,67 +1238,67 @@
         <v>31</v>
       </c>
       <c r="B12">
-        <v>0.0005067527564257034</v>
+        <v>7.037328181895412E-05</v>
       </c>
       <c r="C12">
-        <v>0.2090725266761159</v>
+        <v>0.0129482389079444</v>
       </c>
       <c r="D12">
-        <v>0.0129636704243021</v>
+        <v>0.0007521162211055152</v>
       </c>
       <c r="E12">
-        <v>0.01690435154242918</v>
+        <v>0.001012498364470717</v>
       </c>
       <c r="F12">
-        <v>0.5827244715235851</v>
+        <v>0.1009871749286499</v>
       </c>
       <c r="G12">
-        <v>0.05504801952378246</v>
+        <v>0.003782874054950278</v>
       </c>
       <c r="H12">
-        <v>0.0001737504547133003</v>
+        <v>5.303339973781364E-06</v>
       </c>
       <c r="I12">
-        <v>1.504736331055337E-05</v>
+        <v>7.115384240009328E-06</v>
       </c>
       <c r="J12">
-        <v>0.01732092934183302</v>
+        <v>0.0007252861173417349</v>
       </c>
       <c r="K12">
-        <v>0.3091297290735713</v>
+        <v>0.02829007420596546</v>
       </c>
       <c r="L12">
-        <v>0.06332676028392875</v>
+        <v>0.0005303683533682993</v>
       </c>
       <c r="M12">
-        <v>0.04609386119616037</v>
+        <v>0.01422378787279634</v>
       </c>
       <c r="N12">
-        <v>0.001418518412835908</v>
+        <v>0.0001018938784501533</v>
       </c>
       <c r="O12">
-        <v>2.385586374144117E-07</v>
+        <v>3.531417634041586E-08</v>
       </c>
       <c r="P12">
-        <v>0.0001724650924568365</v>
+        <v>3.060135277414441E-05</v>
       </c>
       <c r="Q12">
-        <v>0.0004212608282948737</v>
+        <v>5.696030131976226E-05</v>
       </c>
       <c r="R12">
-        <v>0.0004307690639543159</v>
+        <v>5.870506215689963E-05</v>
       </c>
       <c r="S12">
-        <v>0.003780097176283349</v>
+        <v>0.0002611313739295159</v>
       </c>
       <c r="T12">
-        <v>1.291043774432961E-09</v>
+        <v>1.902763913050988E-10</v>
       </c>
       <c r="U12">
-        <v>4.398194845904148E-07</v>
+        <v>4.076990668642099E-08</v>
       </c>
       <c r="V12">
-        <v>0.01027810362916072</v>
+        <v>0.001205793051167916</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1309,67 +1306,67 @@
         <v>32</v>
       </c>
       <c r="B13">
-        <v>0.01200668689795142</v>
+        <v>0.007223574219549321</v>
       </c>
       <c r="C13">
-        <v>3.587523536323866</v>
+        <v>2.428075163780191</v>
       </c>
       <c r="D13">
-        <v>0.7517799482336798</v>
+        <v>0.07016813328737236</v>
       </c>
       <c r="E13">
-        <v>0.9481719012997886</v>
+        <v>0.09344669677707922</v>
       </c>
       <c r="F13">
-        <v>38.2601231541985</v>
+        <v>6.606754278037037</v>
       </c>
       <c r="G13">
-        <v>0.9240502135535074</v>
+        <v>1.333466901546345</v>
       </c>
       <c r="H13">
-        <v>0.003421065429399548</v>
+        <v>0.0006782904140378359</v>
       </c>
       <c r="I13">
-        <v>0.001526492581355502</v>
+        <v>0.0001927160530775579</v>
       </c>
       <c r="J13">
-        <v>0.3391497550877831</v>
+        <v>0.1056188009045302</v>
       </c>
       <c r="K13">
-        <v>10.44930817855522</v>
+        <v>1.852968961666067</v>
       </c>
       <c r="L13">
-        <v>0.996939219237465</v>
+        <v>0.1758859791918164</v>
       </c>
       <c r="M13">
-        <v>0.7087070447121592</v>
+        <v>0.4951723222533895</v>
       </c>
       <c r="N13">
-        <v>0.04612455728666324</v>
+        <v>0.1917812913274864</v>
       </c>
       <c r="O13">
-        <v>4.133021640776055E-06</v>
+        <v>7.518127380009085E-07</v>
       </c>
       <c r="P13">
-        <v>0.004170294405951565</v>
+        <v>0.003281927575817966</v>
       </c>
       <c r="Q13">
-        <v>0.00761185436459472</v>
+        <v>0.006287098351865716</v>
       </c>
       <c r="R13">
-        <v>0.007803648231695253</v>
+        <v>0.006798701505091652</v>
       </c>
       <c r="S13">
-        <v>0.06400324380291146</v>
+        <v>0.04489655203232332</v>
       </c>
       <c r="T13">
-        <v>2.323404156012605E-08</v>
+        <v>1.418889836833462E-08</v>
       </c>
       <c r="U13">
-        <v>9.617358304447479E-06</v>
+        <v>5.195975225027436E-06</v>
       </c>
       <c r="V13">
-        <v>0.1875386325016969</v>
+        <v>0.5372963585016816</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1377,67 +1374,67 @@
         <v>33</v>
       </c>
       <c r="B14">
-        <v>7.037328258477111E-05</v>
+        <v>6.249490286777009E-05</v>
       </c>
       <c r="C14">
-        <v>0.01294823863908883</v>
+        <v>0.01285170621261845</v>
       </c>
       <c r="D14">
-        <v>0.0007521161898088685</v>
+        <v>0.002792339710185499</v>
       </c>
       <c r="E14">
-        <v>0.001012498323732922</v>
+        <v>0.003720088332990505</v>
       </c>
       <c r="F14">
-        <v>0.1009871688096946</v>
+        <v>0.4425244279598313</v>
       </c>
       <c r="G14">
-        <v>0.003782873942003633</v>
+        <v>0.003063037529365741</v>
       </c>
       <c r="H14">
-        <v>5.303339807155429E-06</v>
+        <v>6.495437424026572E-06</v>
       </c>
       <c r="I14">
-        <v>7.115384258915674E-06</v>
+        <v>7.484963222329542E-07</v>
       </c>
       <c r="J14">
-        <v>0.0007252858715134469</v>
+        <v>0.01600976023331309</v>
       </c>
       <c r="K14">
-        <v>0.0282900736466074</v>
+        <v>0.04190537951620722</v>
       </c>
       <c r="L14">
-        <v>0.0005303683529145941</v>
+        <v>0.0008099262796407999</v>
       </c>
       <c r="M14">
-        <v>0.01422378791311702</v>
+        <v>0.0004507693032491023</v>
       </c>
       <c r="N14">
-        <v>0.0001018938828519707</v>
+        <v>0.001110122620804753</v>
       </c>
       <c r="O14">
-        <v>3.531417640996122E-08</v>
+        <v>3.685177873587671E-09</v>
       </c>
       <c r="P14">
-        <v>3.060135236622983E-05</v>
+        <v>4.305807388823399E-05</v>
       </c>
       <c r="Q14">
-        <v>5.696030148048349E-05</v>
+        <v>3.349726599219498E-05</v>
       </c>
       <c r="R14">
-        <v>5.870506212361875E-05</v>
+        <v>3.501499022151575E-05</v>
       </c>
       <c r="S14">
-        <v>0.0002611313754414533</v>
+        <v>9.843189406486342E-05</v>
       </c>
       <c r="T14">
-        <v>1.90276390860637E-10</v>
+        <v>6.94855481265173E-11</v>
       </c>
       <c r="U14">
-        <v>4.076990524045526E-08</v>
+        <v>1.019560742686461E-07</v>
       </c>
       <c r="V14">
-        <v>0.001205793019753766</v>
+        <v>0.0009559316717021194</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1445,67 +1442,67 @@
         <v>34</v>
       </c>
       <c r="B15">
-        <v>6.249490286777009E-05</v>
+        <v>5.367420424950549E-05</v>
       </c>
       <c r="C15">
-        <v>0.01285170621261845</v>
+        <v>0.01623028490170327</v>
       </c>
       <c r="D15">
-        <v>0.002792339710185499</v>
+        <v>0.003484677149589</v>
       </c>
       <c r="E15">
-        <v>0.003720088332990505</v>
+        <v>0.004390462149168234</v>
       </c>
       <c r="F15">
-        <v>0.4425244279598313</v>
+        <v>0.1764627295269747</v>
       </c>
       <c r="G15">
-        <v>0.003063037529365741</v>
+        <v>0.004169948934157744</v>
       </c>
       <c r="H15">
-        <v>6.495437424026572E-06</v>
+        <v>1.420379347262742E-05</v>
       </c>
       <c r="I15">
-        <v>7.484963222329542E-07</v>
+        <v>1.423529280588476E-06</v>
       </c>
       <c r="J15">
-        <v>0.01600976023331309</v>
+        <v>0.001498456928941167</v>
       </c>
       <c r="K15">
-        <v>0.04190537951620722</v>
+        <v>0.04545673748860148</v>
       </c>
       <c r="L15">
-        <v>0.0008099262796407999</v>
+        <v>0.004535809516283955</v>
       </c>
       <c r="M15">
-        <v>0.0004507693032491023</v>
+        <v>0.003318171162960512</v>
       </c>
       <c r="N15">
-        <v>0.001110122620804753</v>
+        <v>0.0001855137839138461</v>
       </c>
       <c r="O15">
-        <v>3.685177873587671E-09</v>
+        <v>1.752618652321053E-08</v>
       </c>
       <c r="P15">
-        <v>4.305807388823399E-05</v>
+        <v>1.849325568352731E-05</v>
       </c>
       <c r="Q15">
-        <v>3.349726599219498E-05</v>
+        <v>3.418728796217898E-05</v>
       </c>
       <c r="R15">
-        <v>3.501499022151575E-05</v>
+        <v>3.503057703731572E-05</v>
       </c>
       <c r="S15">
-        <v>9.843189406486342E-05</v>
+        <v>0.0002884118958757505</v>
       </c>
       <c r="T15">
-        <v>6.94855481265173E-11</v>
+        <v>1.051772048679688E-10</v>
       </c>
       <c r="U15">
-        <v>1.019560742686461E-07</v>
+        <v>4.273809716537178E-08</v>
       </c>
       <c r="V15">
-        <v>0.0009559316717021194</v>
+        <v>0.0008241898450883538</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1513,67 +1510,67 @@
         <v>35</v>
       </c>
       <c r="B16">
-        <v>5.367420424950549E-05</v>
+        <v>0.0002618355586056509</v>
       </c>
       <c r="C16">
-        <v>0.01623028490170327</v>
+        <v>0.1899909435008961</v>
       </c>
       <c r="D16">
-        <v>0.003484677149589</v>
+        <v>0.004747115176759131</v>
       </c>
       <c r="E16">
-        <v>0.004390462149168234</v>
+        <v>0.008434009841658218</v>
       </c>
       <c r="F16">
-        <v>0.1764627295269747</v>
+        <v>3.664689273251754</v>
       </c>
       <c r="G16">
-        <v>0.004169948934157744</v>
+        <v>0.05987564755945846</v>
       </c>
       <c r="H16">
-        <v>1.420379347262742E-05</v>
+        <v>1.357917393876705E-05</v>
       </c>
       <c r="I16">
-        <v>1.423529280588476E-06</v>
+        <v>5.346281265950717E-06</v>
       </c>
       <c r="J16">
-        <v>0.001498456928941167</v>
+        <v>0.00984147553653757</v>
       </c>
       <c r="K16">
-        <v>0.04545673748860148</v>
+        <v>0.1495463881782324</v>
       </c>
       <c r="L16">
-        <v>0.004535809516283955</v>
+        <v>0.00308873295653153</v>
       </c>
       <c r="M16">
-        <v>0.003318171162960512</v>
+        <v>0.007242663459961711</v>
       </c>
       <c r="N16">
-        <v>0.0001855137839138461</v>
+        <v>0.002141844721081402</v>
       </c>
       <c r="O16">
-        <v>1.752618652321053E-08</v>
+        <v>8.67453847278739E-08</v>
       </c>
       <c r="P16">
-        <v>1.849325568352731E-05</v>
+        <v>0.0001367145750595932</v>
       </c>
       <c r="Q16">
-        <v>3.418728796217898E-05</v>
+        <v>0.0003025580461710476</v>
       </c>
       <c r="R16">
-        <v>3.503057703731572E-05</v>
+        <v>0.0003422863419558428</v>
       </c>
       <c r="S16">
-        <v>0.0002884118958757505</v>
+        <v>0.0003092917181697809</v>
       </c>
       <c r="T16">
-        <v>1.051772048679688E-10</v>
+        <v>7.511048813480937E-10</v>
       </c>
       <c r="U16">
-        <v>4.273809716537178E-08</v>
+        <v>3.30048094371714E-07</v>
       </c>
       <c r="V16">
-        <v>0.0008241898450883538</v>
+        <v>0.02586315119903052</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1581,134 +1578,66 @@
         <v>36</v>
       </c>
       <c r="B17">
-        <v>0.0002618355586056509</v>
+        <v>-0.001960372506999401</v>
       </c>
       <c r="C17">
-        <v>0.1899909435008961</v>
+        <v>-0.4456405221345083</v>
       </c>
       <c r="D17">
-        <v>0.004747115176759131</v>
+        <v>-0.04537183005603758</v>
       </c>
       <c r="E17">
-        <v>0.008434009841658218</v>
+        <v>-0.06015808437107702</v>
       </c>
       <c r="F17">
-        <v>3.664689273251754</v>
+        <v>-1.512129708187906</v>
       </c>
       <c r="G17">
-        <v>0.05987564755945846</v>
+        <v>-0.1105926448150927</v>
       </c>
       <c r="H17">
-        <v>1.357917393876705E-05</v>
+        <v>-0.0003596275663572146</v>
       </c>
       <c r="I17">
-        <v>5.346281265950717E-06</v>
+        <v>-0.002855970013474346</v>
       </c>
       <c r="J17">
-        <v>0.00984147553653757</v>
+        <v>-0.02563739820331595</v>
       </c>
       <c r="K17">
-        <v>0.1495463881782324</v>
+        <v>-1.17187340047968</v>
       </c>
       <c r="L17">
-        <v>0.00308873295653153</v>
+        <v>-0.04337626455570576</v>
       </c>
       <c r="M17">
-        <v>0.007242663459961711</v>
+        <v>-0.01734705420181391</v>
       </c>
       <c r="N17">
-        <v>0.002141844721081402</v>
+        <v>-0.004300232471055395</v>
       </c>
       <c r="O17">
-        <v>8.67453847278739E-08</v>
+        <v>-5.116582690139191E-07</v>
       </c>
       <c r="P17">
-        <v>0.0001367145750595932</v>
+        <v>-0.001009445094067612</v>
       </c>
       <c r="Q17">
-        <v>0.0003025580461710476</v>
+        <v>-0.001151205902998955</v>
       </c>
       <c r="R17">
-        <v>0.0003422863419558428</v>
+        <v>-0.001187084224132468</v>
       </c>
       <c r="S17">
-        <v>0.0003092917181697809</v>
+        <v>-0.003746187004544688</v>
       </c>
       <c r="T17">
-        <v>7.511048813480937E-10</v>
+        <v>-2.271545291657214E-09</v>
       </c>
       <c r="U17">
-        <v>3.30048094371714E-07</v>
+        <v>-1.410274464570867E-06</v>
       </c>
       <c r="V17">
-        <v>0.02586315119903052</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18">
-        <v>-0.001960372506999401</v>
-      </c>
-      <c r="C18">
-        <v>-0.4456405221345083</v>
-      </c>
-      <c r="D18">
-        <v>-0.04537183005603758</v>
-      </c>
-      <c r="E18">
-        <v>-0.06015808437107702</v>
-      </c>
-      <c r="F18">
-        <v>-1.512129708187906</v>
-      </c>
-      <c r="G18">
-        <v>-0.1105926448150927</v>
-      </c>
-      <c r="H18">
-        <v>-0.0003596275663572146</v>
-      </c>
-      <c r="I18">
-        <v>-0.002855970013474346</v>
-      </c>
-      <c r="J18">
-        <v>-0.02563739820331595</v>
-      </c>
-      <c r="K18">
-        <v>-1.17187340047968</v>
-      </c>
-      <c r="L18">
-        <v>-0.04337626455570576</v>
-      </c>
-      <c r="M18">
-        <v>-0.01734705420181391</v>
-      </c>
-      <c r="N18">
-        <v>-0.004300232471055395</v>
-      </c>
-      <c r="O18">
-        <v>-5.116582690139191E-07</v>
-      </c>
-      <c r="P18">
-        <v>-0.001009445094067612</v>
-      </c>
-      <c r="Q18">
-        <v>-0.001151205902998955</v>
-      </c>
-      <c r="R18">
-        <v>-0.001187084224132468</v>
-      </c>
-      <c r="S18">
-        <v>-0.003746187004544688</v>
-      </c>
-      <c r="T18">
-        <v>-2.271545291657214E-09</v>
-      </c>
-      <c r="U18">
-        <v>-1.410274464570867E-06</v>
-      </c>
-      <c r="V18">
         <v>-0.02499607444470385</v>
       </c>
     </row>
